--- a/заказы/статистика филиалы/2023/12,23/13,12,23 КИ/дв 13,12,23 лгрсч от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/12,23/13,12,23 КИ/дв 13,12,23 лгрсч от филиала.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\12,23\13,12,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8FC51F-040D-42D7-BE07-1E2FB7B4C170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDA6622-B572-4185-B040-230744FE8EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AA$108</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -481,6 +481,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -8261,8 +8263,8 @@
   <dimension ref="A1:AB108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -8474,11 +8476,17 @@
         <v>13987.99</v>
       </c>
       <c r="P5" s="20">
-        <f t="shared" ref="P5" si="2">SUM(P6:P205)</f>
+        <f t="shared" ref="P5:R5" si="2">SUM(P6:P205)</f>
         <v>16074.123800000001</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
+      <c r="Q5" s="20">
+        <f t="shared" si="2"/>
+        <v>11274.123800000001</v>
+      </c>
+      <c r="R5" s="20">
+        <f t="shared" si="2"/>
+        <v>4800</v>
+      </c>
       <c r="S5" s="20">
         <f t="shared" si="1"/>
         <v>15810</v>
